--- a/music_website/scripts/singer_info流行.xlsx
+++ b/music_website/scripts/singer_info流行.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="first_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -785,12 +785,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,18 +804,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -817,24 +1152,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1117,17 +1742,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1146,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1231,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1248,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="15" spans="1:5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1316,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15" spans="1:5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1333,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="15" spans="1:5">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="15" spans="1:5">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="15" spans="1:5">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1384,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="15" spans="1:5">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1401,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="15" spans="1:5">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="15" spans="1:5">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1435,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="15" spans="1:5">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1452,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="15" spans="1:5">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1469,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="15" spans="1:5">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1486,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="15" spans="1:5">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1503,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="15" spans="1:5">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1520,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="15" spans="1:5">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1537,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="15" spans="1:5">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -1554,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="15" spans="1:5">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1571,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" ht="15" spans="1:5">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1588,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="15" spans="1:5">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1605,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="15" spans="1:5">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1622,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="15" spans="1:5">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1639,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" ht="15" spans="1:5">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -1656,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="15" spans="1:5">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -1673,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" ht="15" spans="1:5">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -1690,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" ht="15" spans="1:5">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -1707,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" ht="15" spans="1:5">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -1724,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" ht="15" spans="1:5">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -1741,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" ht="15" spans="1:5">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1758,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" ht="15" spans="1:5">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1775,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" ht="15" spans="1:5">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -1792,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" ht="15" spans="1:5">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -1809,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" ht="15" spans="1:5">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -1826,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" ht="15" spans="1:5">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -1843,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" ht="15" spans="1:5">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -1860,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" ht="15" spans="1:5">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -1877,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" ht="15" spans="1:5">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -1894,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" ht="15" spans="1:5">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -1911,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" ht="15" spans="1:5">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -1928,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" ht="15" spans="1:5">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -1945,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" ht="15" spans="1:5">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -1962,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" ht="15" spans="1:5">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -1979,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" ht="15" spans="1:5">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -1996,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" ht="15" spans="1:5">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -2013,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" ht="15" spans="1:5">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -2030,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" ht="15" spans="1:5">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -2047,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" ht="15" spans="1:5">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -2064,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" ht="15" spans="1:5">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -2081,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" ht="15" spans="1:5">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -2098,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="15" spans="1:5">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -2115,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" ht="15" spans="1:5">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -2132,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" ht="15" spans="1:5">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -2149,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" ht="15" spans="1:5">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -2166,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" ht="15" spans="1:5">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -2183,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" ht="15" spans="1:5">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -2200,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" ht="15" spans="1:5">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -2217,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" ht="15" spans="1:5">
       <c r="A65" t="s">
         <v>203</v>
       </c>
@@ -2234,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" ht="15" spans="1:5">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -2251,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" ht="15" spans="1:5">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -2268,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" ht="15" spans="1:5">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -2285,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" ht="15" spans="1:5">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -2302,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" ht="15" spans="1:5">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -2319,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="15" spans="1:5">
       <c r="A71" t="s">
         <v>221</v>
       </c>
@@ -2336,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" ht="15" spans="1:5">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -2353,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" ht="15" spans="1:5">
       <c r="A73" t="s">
         <v>228</v>
       </c>
@@ -2370,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" ht="15" spans="1:5">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -2387,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" ht="15" spans="1:5">
       <c r="A75" t="s">
         <v>234</v>
       </c>
@@ -2404,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" ht="15" spans="1:5">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -2421,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" ht="15" spans="1:5">
       <c r="A77" t="s">
         <v>240</v>
       </c>
@@ -2438,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" ht="15" spans="1:5">
       <c r="A78" t="s">
         <v>243</v>
       </c>
@@ -2455,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" ht="15" spans="1:5">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -2472,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" ht="15" spans="1:5">
       <c r="A80" t="s">
         <v>249</v>
       </c>
@@ -2489,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" ht="15" spans="1:5">
       <c r="A81" t="s">
         <v>252</v>
       </c>
@@ -2508,87 +3135,88 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004Be55m1SJaLk.webp"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000025NhlN2yWrP4.webp"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000GDDuQ3sGQiT.webp"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003Nz2So3XXYek.webp"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001BLpXF2DyJe2.webp"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003aQYLo2x8izP.webp"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000040D7gK4aI54k.webp"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000001v4XU1cZxPy.webp"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000NFT2p1GbnPB.webp"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002u0TJy47WWOj.webp"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000aHmbL2aPXWH.webp"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002J4UUk29y8BY.webp"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001pWERg3vFgg8.webp"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003JGrNQ3RjelA.webp"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001fNHEf1SFEFN.webp"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000zmpju02bEBm.webp"/>
+    <hyperlink ref="B18" r:id="rId17" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000aw4WC2EQYTv.webp"/>
+    <hyperlink ref="B19" r:id="rId18" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003LCFXH0eodXv.webp"/>
+    <hyperlink ref="B20" r:id="rId19" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002azErJ0UcDN6.webp"/>
+    <hyperlink ref="B21" r:id="rId20" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000000mFvh1jtLcz.webp"/>
+    <hyperlink ref="B22" r:id="rId21" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004V53Ga0bV65j.webp"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001JDzPT3JdvqK.webp"/>
+    <hyperlink ref="B24" r:id="rId23" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001IoTZp19YMDG.webp"/>
+    <hyperlink ref="B25" r:id="rId24" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000CK5xN3yZDJt.webp"/>
+    <hyperlink ref="B26" r:id="rId25" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000IBYF50SRnXP.webp"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001z2JmX09LLgL.webp"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000LsFo136kIv4.webp"/>
+    <hyperlink ref="B29" r:id="rId28" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004NMZuf2BLjg8.webp"/>
+    <hyperlink ref="B30" r:id="rId29" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001BHDR33FZVZ0.webp"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003Cn3Yh16q1MO.webp"/>
+    <hyperlink ref="B32" r:id="rId31" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000003ZpE43ypssl.webp"/>
+    <hyperlink ref="B33" r:id="rId32" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002mze3U0NYXOM.webp"/>
+    <hyperlink ref="B34" r:id="rId33" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003tMm0y0TuewY.webp"/>
+    <hyperlink ref="B35" r:id="rId34" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002yeznU3VAVEV.webp"/>
+    <hyperlink ref="B36" r:id="rId35" display="http://y.gtimg.cn/music/photo_new/T001R150x150M00000067r4p0wBDDN.webp"/>
+    <hyperlink ref="B37" r:id="rId36" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000iM9BB2TXFqu.webp"/>
+    <hyperlink ref="B38" r:id="rId37" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003WlPvN2EvRaj.webp"/>
+    <hyperlink ref="B39" r:id="rId38" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002ZOuVm3Qn20Y.webp"/>
+    <hyperlink ref="B40" r:id="rId39" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000poF8D027tPr.webp"/>
+    <hyperlink ref="B41" r:id="rId40" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001SqkF53OEhdO.webp"/>
+    <hyperlink ref="B42" r:id="rId41" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000cISVf2QqLc6.webp"/>
+    <hyperlink ref="B43" r:id="rId42" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002Vcz8F2hpBQj.webp"/>
+    <hyperlink ref="B44" r:id="rId43" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000013RsPD3Xs0FG.webp"/>
+    <hyperlink ref="B45" r:id="rId44" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003AfDK34H82GU.webp"/>
+    <hyperlink ref="B46" r:id="rId45" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001NODJ71LGPD5.webp"/>
+    <hyperlink ref="B47" r:id="rId46" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001s4BJ92fSpPu.webp"/>
+    <hyperlink ref="B48" r:id="rId47" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001ZVMXf3ZYVX7.webp"/>
+    <hyperlink ref="B49" r:id="rId48" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000wHoyF0OZB6B.webp"/>
+    <hyperlink ref="B50" r:id="rId49" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000mLAT42CFWNa.webp"/>
+    <hyperlink ref="B51" r:id="rId50" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000iZroE1VWLJG.webp"/>
+    <hyperlink ref="B52" r:id="rId51" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000023dQD40to8NP.webp"/>
+    <hyperlink ref="B53" r:id="rId52" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000hNnWC3kko2c.webp"/>
+    <hyperlink ref="B54" r:id="rId53" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000044wQXL0ElWF1.webp"/>
+    <hyperlink ref="B55" r:id="rId54" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000985uR2CKS2P.webp"/>
+    <hyperlink ref="B56" r:id="rId55" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000GGDys0yA0Nk.webp"/>
+    <hyperlink ref="B57" r:id="rId56" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003DBAjk2MMfhR.webp"/>
+    <hyperlink ref="B58" r:id="rId57" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001ii8ME2uOv92.webp"/>
+    <hyperlink ref="B59" r:id="rId58" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000045p4Sz0LIwL5.webp"/>
+    <hyperlink ref="B60" r:id="rId59" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003fA5G40k6hKc.webp"/>
+    <hyperlink ref="B61" r:id="rId60" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004HlS192u9J5g.webp"/>
+    <hyperlink ref="B62" r:id="rId61" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000xogLP35ayzS.webp"/>
+    <hyperlink ref="B63" r:id="rId62" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000000jnR7q3pCzYG.webp"/>
+    <hyperlink ref="B64" r:id="rId63" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003ArN8Z0WpjTz.webp"/>
+    <hyperlink ref="B65" r:id="rId64" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001f0VyZ1hmWZ1.webp"/>
+    <hyperlink ref="B66" r:id="rId65" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004dXznj3zlHKW.webp"/>
+    <hyperlink ref="B67" r:id="rId66" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001ByAsv3XCdgm.webp"/>
+    <hyperlink ref="B68" r:id="rId67" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003jJGvv3C82KZ.webp"/>
+    <hyperlink ref="B69" r:id="rId68" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002raUWw3PXdkT.webp"/>
+    <hyperlink ref="B70" r:id="rId69" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000003U6coz1AhN3H.webp"/>
+    <hyperlink ref="B71" r:id="rId70" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001KH1tJ02U8KY.webp"/>
+    <hyperlink ref="B72" r:id="rId71" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004ItgA32BhfdC.webp"/>
+    <hyperlink ref="B73" r:id="rId72" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000004IHCLx2eWTCC.webp"/>
+    <hyperlink ref="B74" r:id="rId73" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001RRlcX2n2NLs.webp"/>
+    <hyperlink ref="B75" r:id="rId74" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000040z4ka3pubEV.webp"/>
+    <hyperlink ref="B76" r:id="rId75" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002UGAkU4ZDoTZ.webp"/>
+    <hyperlink ref="B77" r:id="rId76" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002Sm9iK4RIsCr.webp"/>
+    <hyperlink ref="B78" r:id="rId77" display="http://y.gtimg.cn/music/photo_new/T001R150x150M0000028F2cT0zWp5a.webp"/>
+    <hyperlink ref="B79" r:id="rId78" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001e4pOU25pgzC.webp"/>
+    <hyperlink ref="B80" r:id="rId79" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000001axJJM4SezGt.webp"/>
+    <hyperlink ref="B81" r:id="rId80" display="http://y.gtimg.cn/music/photo_new/T001R150x150M000002cENGP2BtEVR.webp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>